--- a/EDITAIS/U_985661_E_900202025_26-09-2025_08h30m/U_985661_E_900202025_26-09-2025_08h30m_master.xlsx
+++ b/EDITAIS/U_985661_E_900202025_26-09-2025_08h30m/U_985661_E_900202025_26-09-2025_08h30m_master.xlsx
@@ -121,10 +121,10 @@
     <t>TRI TOM 8", 10"e 12" COM COLETE - O TAMBOR OU CORPO deve ser feito com lâminas natural de eucalipto transgênico, que projeta um excelente volume e timbre médio bem definido , com espessura total nas bordas de 12,00mm. somando 6,50mm. de espessura do corpo mais 5,50mm. de espessura do anel de reforço, que resultam numa borda reforçada, que suporta as altas afinações Acabamento laqueado finissimo na cor Preto Ebano, e face interna impermeabilizada. TONS: 8 x 7 5 afinações, 10 x 8 6 afinações, e 12 x 9 6 afinações -AROS de chapa de aço perfilados e estampados com 2,00mm. de espessura e acabamento cromados. CANOAS individuais de parede grossa com dupla fixação no tambor, feitas de zamac e acabamento cromado. Porcas de afinação feitas de latão ou aço com parafusos de afinação com cabeça quadrada e rosca M-6, Garras de aluminio cromadas. - PELES são Double Clear (filme laminado com 350 micras de espessura). COLETE com perfis redondo e retangular com regulagem livre de abertura e altura, com base abdominal e apoio de costas com desenho ergonômico, tufo feito de aluminio pintados com resina eletrostática de poliéster na cor preta, vestindo com conforto do adolescente até o adulto de alta estatura. As áreas de contato com o corpo do músico são revestidos de borracha sintética. Instrumentos acompanhados de bag acolchoada e baqueta profissional especifica para Tenor TRITOM. GARANTIA de 2 anos contra defeitos de fabricação no corpo de madeira e 1 ano nos componentes de metais. E garantia de assistência técnica e reposição de peças por 10 anos, caso tenha sua produção descontinuada.</t>
   </si>
   <si>
-    <t>QUADRITON 8"', 10", 12" e 13" COM COLETE - O TAMBOR OU CORPO deve ser feito com lâminas natural de eucalipto transgênico, que projeta um excelente volume e timbre médio bem definido , com espessura total nas bordas de 12,00mm. somando 6,50mm. de espessura do corpo mais 5,50mm. de espessura do anel de reforço, que resultam numa borda reforçada, que suporta as altas afinações Acabamento laqueado cor Preto Ebano e face interna impermeabilizada. TONS: 8x7 5 afinações, 10 x 8 6 afinações, 12 x 9 6 afinações e 13 x 10 8 afinações. Os AROS de chapa de aço perfilados e estampados com 2,00mm. de espessura e acabamento cromados. As CANOAS individuais de parede grossa com dupla fixação no tambor, feitas de zamac e acabamento cromado. Porcas de afinação feitas de latão ou aço com parafusos de afinação com cabeça quadrada e rosca M-6, Garras de aluminio cromadas. - PELES são Double Clear (filme laminado com 350 micras de espessura) O COLETE com perfis redondo e retangular com regulagem livre de abertura e altura, com base abdominal e apoio de costas com desenho ergonômico, tufo feito de aluminio pintados com resina eletrostática de poliéster na cor preta, vestindo com conforto do adolescente até o adulto de alta estatura. As áreas de contato com o corpo do músico são revestidos de borracha sintética. Instrumentos acompanhados de bag acolchoada e baqueta profissional especifica para QUADRITOM, GARANTIA de 2 anos contra defeitos de fabricação no corpo de madeira e 1 ano nos componentes de metais. E garantia de assistência técnica e reposição de peças por 10 anos, caso tenha sua produção descontinuada.</t>
-  </si>
-  <si>
-    <t>QUINTOTON 6"', 8", 10", 12" e 13" COM COLETE - O TAMBOR OU CORPO deve ser feito com lâminas natural de eucalipto transgênico, que projeta um excelente volume e timbre médio bem definido , com espessura total nas bordas de 12,00mm. somando 6,50mm. de espessura do corpo mais 5,50mm. de espessura do anel de reforço, que resultam numa borda reforçada, que suporta as altas afinações Acabamento laqueado na cor Preto Ebano, e face interna impermeabilizada. TONS: 6 x 6 4 afinações, 8 x 7 5 afinações, 10 x 8 6 afinações, 12 x 9 6 afinações e 13 x 10 8 afinações. Os AROS de chapa de aço perfilados e estampados com 2,00mm. de espessura e acabamento cromados. CANOAS individuais de parede grossa com dupla fixação no tambor, feitas de zamac e acabamento cromado. Porcas de afinação feitas de aço com parafusos de afinação com cabeça quadrada e rosca M-6. As PELES são Double Clear (filme laminado com 350 micras de espessura). COLETE com perfis redondo e retangular com regulagem livre de abertura e altura, com base abdominal e apoio de costas com desenho ergonômico, tufo feito de aluminio pintados com resina eletrostática de poliéster na cor preta, vestindo com conforto do adolescente até o adulto de alta estatura. As áreas de contato com o corpo do músico são revestidos de borracha sintética. Instrumentos acompanhados de bag acolchoada e baqueta profissional especiífica para QUINTOTOM. GARANTIA de 2 anos contra defeitos de fabricação no corpo de madeira e 1 ano nos componentes de metais. E garantia de assistência técnica e reposição de peças por 10 anos, caso tenha sua produção descontinuada.</t>
+    <t>QUADRITON 8"', 10", 12" e 13" COM COLETE - O TAMBOR OU CORPO deve ser feito com lâminas natural de eucalipto transgênico, que projeta um excelente volume e timbre médio bem definido , com espessura total nas bordas de 12,00mm. somando 6,50mm. de espessura do corpo mais 5,50mm. de espessura do anel de reforço, que resultam numa borda reforçada, que suporta as altas afinações Acabamento laqueado cor Preto Ebano e face interna impermeabilizada. TONS: 8x75 afinações, 10 x 8 6 afinações, 12 x 9 6 afinações e 13 x 10 8 afinações. Os AROS de chapa de aço perfilados e estampados com 2,00mm. de espessura e acabamento cromados. As CANOAS individuais de parede grossa com dupla fixação no tambor, feitas de zamac e acabamento cromado. Porcas de afinação feitas de latão ou aço com parafusos de afinação com cabeça quadrada e rosca M-6, Garras de aluminio cromadas. - PELES são Double Clear (filme laminado com 350 micras de espessura) O COLETE com perfis redondo e retangular com regulagem livre de abertura e altura, com base abdominal e apoio de costas com desenho ergonômico, tufo feito de aluminio pintados com resina eletrostática de poliéster na cor preta, vestindo com conforto do adolescente até o adulto de alta estatura. As áreas de contato com o corpo do músico são revestidos de borracha sintética. Instrumentos acompanhados de bag acolchoada e baqueta profissional especifica para QUADRITOM, GARANTIA de 2 anos contra defeitos de fabricação no corpo de madeira e 1 ano nos componentes de metais. E garantia de assistência técnica e reposição de peças por 10 anos, caso tenha sua produção descontinuada.</t>
+  </si>
+  <si>
+    <t>QUINTOTON 6"', 8", 10", 12" e 13" COM COLETE - O TAMBOR OU CORPO deve ser feito com lâminas natural de eucalipto transgênico, que projeta um excelente volume e timbre médio bem definido , com espessura total nas bordas de 12,00mm. somando 6,50mm. de espessura do corpo mais 5,50mm. de espessura do anel de reforço, que resultam numa borda reforçada, que suporta as altas afinações Acabamento laqueado na cor Preto Ebano, e face interna impermeabilizada. TONS: 6 x 6 4 afinações, 8 x 7 5 afinações, 10 x 8 6 afinações, 12 x 9 6 afinações e 13 x 10 8 afinações.Os AROS de chapa de aço perfilados e estampados com 2,00mm. de espessura e acabamento cromados. CANOAS individuais de parede grossa com dupla fixação no tambor, feitas de zamac e acabamento cromado. Porcas de afinação feitas de aço com parafusos de afinação com cabeça quadrada e rosca M-6. As PELES são Double Clear (filme laminado com 350 micras de espessura). COLETE com perfis redondo e retangular com regulagem livre de abertura e altura, com base abdominal e apoio de costas com desenho ergonômico, tufo feito de aluminio pintados com resina eletrostática de poliéster na cor preta, vestindo com conforto do adolescente até o adulto de alta estatura. As áreas de contato com o corpo do músico são revestidos de borracha sintética. Instrumentos acompanhados de bag acolchoada e baqueta profissional especiífica para QUINTOTOM. GARANTIA de 2 anos contra defeitos de fabricação no corpo de madeira e 1 ano nos componentes de metais. E garantia de assistência técnica e reposição de peças por 10 anos, caso tenha sua produção descontinuada..</t>
   </si>
   <si>
     <t>LIRA 25 TECLAS C5 A C7 COM COLETE, BAG E BAQUETAS - Estrutura feita em madeira e alumínio tubular. As teclas são feitas com barras retangulares de 31,75mm. de largura e 9,52mm. de espessura, de liga de alumínio especial usinado, lixado e polido, para proporcionar a sonoridade ideal. As notas/teclas são afinadas com extensão de Dó 5/C5 a Dó 7/C7. E fixadas na estrutura de madeira com 2 parafusos revestidos com ressonadores de silicone e assentados sobre cordão de algodão natural para melhor propagação sonora e durabilidade, com rebaixo na furação das teclas. O COLETE é feito 100% de alumínio, levissimo e resistente com estrutura de perfis redondo e retangular de regulagens livres de abertura e altura e base abdominal ampla com formato anatômico. As ombreiras tem 5cms. de largura e apoio de costas, vestindo com conforto desde o adolescente até o adulto de alta estatura. Os perfis retangulares e redondos, chapas estampadas e presilhas de regulagem tem acabamento eletrostático de poliéster na cor preta. As áreas de contato com o corpo do músico são revestidos de borracha sintética. Os parafusos das presilhas são todos de cabeça quadrada com fixação através da mesma chave de afinação utilizada nos tambores. Acompanha base basculante e 2 hastes de 12,7/0mm. de diametro para encaixe e fixação da Lira. As Liras devem ter garantia contra defeitos de fabricação de 24 (vinte e quatro) meses, exceto baquetas, bag e colete. E garantia por 10 (dez) anos de reposição de peças caso qualquer produto tenha sua fabricação descontinuada, e assistência técnica permanente em todo o território brasileiro. Devem complementar esse kit: 1 bag acolchoado para Lira, feito de nylon grosso impermeabilizado e com alças e 1 par de baquetas feitas de nylon.</t>
@@ -136,7 +136,7 @@
     <t>BUMBO 20" x 14 8 AFINAÇÕES COM COLETE - O TAMBOR OU CORPO deve ser feito com lâminas natural de eucalipto transgênico, que projeta um excelente volume e timbre médio bem definido, com espessura total nas bordas de 12,00mm. somando 6,50mm. de espessura do corpo mais 5,50mm. de espessura do anel de reforço, que resultam numa borda reforçada, que suporta as altas afinações. Acabamento finissimo laqueado em diversas opções de cores, e face interna impermeabilizada. Os AROS de madeira tem 8mm. de espessura com acabamento externo na cor do tambor e interno impermeabilizado natural. As CANOAS são individuais de parede grossa com dupla fixação no tambor, feitas de zamac e acabamento cromado. Porcas de afinação feitas de latão ou aço com parafusos de afinação com cabeça quadrada e rosca M-6, Garras de zamac cromadas. As PELES são Double Clear (filme laminado com 350 micras de espessura) e anel abafador. O COLETE tem perfis redondo e retangular com regulagem livre de abertura e altura, com base abdominal e apoio de costas com desenho ergonômico, tufo feito de aluminio pintados com resina eletrostática de poliéster na cor preta, vestindo com conforto do adolescente até o adulto de alta estatura. As áreas de contato com o corpo do músico são revestidos de borracha. sintética. | Acompanha bag Categoria Premium acolchoada e baqueta especifica para o bumbo 20. GARANTIA de 2 anos contra defeitos de fabricação no corpo de madeira e 1 ano nos componentes de metais. E garantia de assistência técnica e reposição de peças por 10 anos, caso tenha sua produção descontinuada.</t>
   </si>
   <si>
-    <t>BUMBO 18" x 14 8 AFINAÇÕES COM COLETE UND 4 - O TAMBOR OU CORPO deve ser feito com lâminas natural de eucalipto transgênico, que projeta um excelente volume e timbre médio bem definido, com espessura total nas bordas de 12,00mm. somando 6,50mm. de espessura do corpo mais 5,50mm. de espessura do anel de reforço, que resultam numa borda reforçada, que suporta as altas afinações. Acabamento finissimo laqueado em diversas opções de cores, e face interna impermeabilizada. Os AROS de madeira tem 8mm. de espessura com acabamento externo na cor do tambor e interno impermeabilizado natural. As CANOAS são individuais de parede grossa com dupla fixação no tambor, feitas de zamac e acabamento cromado. Porcas de afinação feitas de latão ou aço com parafusos de afinação com cabeça quadrada e rosca M-6, Garras de zamac cromadas. As PELES são Double Clear (filme laminado com 350 micras de espessura) e anel abafador. O COLETE tem perfis redondo e retangular com regulagem livre de abertura e altura, com base abdominal e apoio de costas com desenho ergonômico, tufo feito de aluminio pintados com resina eletrostática de poliéster na cor preta, vestindo com conforto do adolescente até o adulto de alta estatura. As áreas de contato com o corpo do músico são revestidos de borracha. sintética. | Acompanha bag Categoria Premium acolchoada e baqueta especifica para o bumbo 18. GARANTIA de 2 anos contra defeitos de fabricação no corpo de madeira e 1 ano nos componentes de metais. E garantia de assistência técnica e reposição de peças por 10 anos, caso tenha sua produção descontinuada.</t>
+    <t>BUMBO 18" x 14 8 AFINAÇÕES COM COLETE UND - O TAMBOR OU CORPO deve ser feito com lâminas natural de eucalipto transgênico, que projeta um excelente volume e timbre médio bem definido, com espessura total nas bordas de 12,00mm. somando 6,50mm. de espessura do corpo mais 5,50mm. de espessura do anel de reforço, que resultam numa borda reforçada, que suporta as altas afinações. Acabamento finissimo laqueado em diversas opções de cores, e face interna impermeabilizada. Os AROS de madeira tem 8mm. de espessura com acabamento externo na cor do tambor e interno impermeabilizado natural. As CANOAS são individuais de parede grossa com dupla fixação no tambor, feitas de zamac e acabamento cromado. Porcas de afinação feitas de latão ou aço com parafusos de afinação com cabeça quadrada e rosca M-6, Garras de zamac cromadas. As PELES são Double Clear (filme laminado com 350 micras de espessura) e anel abafador. O COLETE tem perfis redondo e retangular com regulagem livre de abertura e altura, com base abdominal e apoio de costas com desenho ergonômico, tufo feito de aluminio pintados com resina eletrostática de poliéster na cor preta, vestindo com conforto do adolescente até o adulto de alta estatura. As áreas de contato com o corpo do músico são revestidos de borracha. sintética. | Acompanha bag Categoria Premium acolchoada e baqueta especifica para o bumbo 18. GARANTIA de 2 anos contra defeitos de fabricação no corpo de madeira e 1 ano nos componentes de metais. E garantia de assistência técnica e reposição de peças por 10 anos, caso tenha sua produção descontinuada.</t>
   </si>
   <si>
     <t>BUMBO 16" x 14 8 AFINAÇÕES COM COLETE - O TAMBOR OU CORPO deve ser feito com lâminas natural de eucalipto transgênico, que projeta um excelente volume e timbre médio bem definido, com espessura total nas bordas de 12,00mm. somando 6,50mm. de espessura do corpo mais 5,50mm. de espessura do anel de reforço, que resultam numa borda reforçada, que suporta as altas afinações. Acabamento finíssimo laqueado em diversas opções de cores, e face interna impermeabilizada. Os AROS de madeira tem 8mm. de espessura com acabamento externo na cor do tambor e interno impermeabilizado natural. As CANOAS são individuais de parede grossa com dupla fixação no tambor, feitas de zamac e acabamento cromado. Porcas de afinação feitas de latão ou aço com parafusos de afinação com cabeça quadrada e rosca M-6, Garras de zamac cromadas. As PELES são Double Clear (filme laminado com 350 micras de espessura) e anel abafador. O COLETE tem perfis redondo e retangular com regulagem livre de abertura e altura, com base abdominal e apoio de costas com desenho ergonômico, tufo feito de aluminio pintados com resina eletrostática de poliéster na cor preta, vestindo com conforto do adolescente até o adulto de alta estatura. As áreas de contato com o corpo do músico são revestidos de borracha. sintética. | Acompanha bag Categoria Premium acolchoada e baqueta especifica para o bumbo 16.GARANTIA de 2 anos contra defeitos de fabricação no corpo de madeira e 1 ano nos componentes de metais. E garantia de assistência técnica e reposição de peças por 10 anos, caso tenha sua produção descontinuada.</t>
